--- a/JeuDeTest.xlsx
+++ b/JeuDeTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99c9fda8f03d07f8/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cecil\eclipse-workspace-api\CecChrRap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="663" documentId="8_{58BF971C-13FE-4585-B70E-3BF7CDB792F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3EEC1AB2-D968-4B73-B81C-FA3A43D36FD4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE814A7D-C4AF-486B-98AA-DCD6A222CA33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{BF3A48DE-6E75-4B60-AEEE-27C9ABED3A7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{BF3A48DE-6E75-4B60-AEEE-27C9ABED3A7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>Place de la Cathédrale</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/File:Strasbourg_Cathedral_Exterior_-_Diliff.jpg</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7f/Cathedrale_Notre_Dame_Strasboug_France.jpg/800px-Cathedrale_Notre_Dame_Strasboug_France.jpg</t>
   </si>
   <si>
@@ -451,6 +448,9 @@
   </si>
   <si>
     <t>L’arc de triomphe de l’Étoile, souvent appelé simplement l’Arc de triomphe, dont la construction, décidée par l empereur Napoléon Ier est situé à Paris, dans les 8e, 16e, et 17e arrondissements.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Strasbourg_Cathedral_Exterior_-_Diliff.jpg/1024px-Strasbourg_Cathedral_Exterior_-_Diliff.jpg</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +528,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -563,6 +569,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,7 +887,7 @@
   <dimension ref="A1:Z81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,7 +910,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -932,10 +939,10 @@
         <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>7</v>
@@ -956,7 +963,7 @@
         <v>15</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="V2" s="5" t="s">
@@ -964,7 +971,7 @@
       </c>
       <c r="X2" s="9"/>
       <c r="Y2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -984,10 +991,10 @@
         <v>1439</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>24</v>
@@ -999,11 +1006,11 @@
         <v>26</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O3" s="13" t="str">
         <f>O16</f>
-        <v>https://en.wikipedia.org/wiki/File:Strasbourg_Cathedral_Exterior_-_Diliff.jpg</v>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Strasbourg_Cathedral_Exterior_-_Diliff.jpg/1024px-Strasbourg_Cathedral_Exterior_-_Diliff.jpg</v>
       </c>
       <c r="P3" s="13">
         <f>P52</f>
@@ -1018,7 +1025,7 @@
         <v>167</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="3" t="str">
         <f>"INSERT INTO "&amp;B$2&amp;" VALUES ("&amp;C3&amp;","&amp;"'"&amp;D3&amp;"'"&amp;","&amp;E3&amp;","&amp;"'"&amp;F3&amp;"'"&amp;","&amp;G3&amp;","&amp;"'"&amp;H3&amp;"'"&amp;","&amp;"'"&amp;I3&amp;"'"&amp;","&amp;"'"&amp;J3&amp;"'"&amp;","&amp;"'"&amp;K3&amp;"'"&amp;","&amp;"'"&amp;L3&amp;"'"&amp;","&amp;"'"&amp;M3&amp;"'"&amp;","&amp;"'"&amp;N3&amp;"'"&amp;");"</f>
@@ -1030,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1042,22 +1049,22 @@
         <v>1688</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="O4" s="13" t="str">
         <f>O18</f>
@@ -1085,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1097,25 +1104,25 @@
         <v>1572</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="J5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="M5" s="3">
         <v>42</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O5" s="13" t="str">
         <f>O20</f>
@@ -1143,37 +1150,37 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="3">
         <v>1800</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="K6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="M6" s="3">
         <v>14</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O6" s="13" t="str">
         <f>O22</f>
@@ -1201,37 +1208,37 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3">
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="3">
         <v>1889</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="J7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="M7" s="3">
         <v>5</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O7" s="13" t="str">
         <f>O25</f>
@@ -1259,34 +1266,34 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="3">
         <v>1793</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="J8" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="N8" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="O8" s="13" t="str">
         <f>O26</f>
@@ -1314,34 +1321,34 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="3">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="3">
         <v>1836</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>114</v>
       </c>
       <c r="O9" s="13" t="str">
         <f>O29</f>
@@ -1369,34 +1376,34 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="3">
         <v>1800</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O10" s="13" t="str">
         <f>O31</f>
@@ -1424,37 +1431,37 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="3">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="3">
         <v>1884</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="M11" s="3">
         <v>8</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O11" s="13" t="str">
         <f>O33</f>
@@ -1503,7 +1510,7 @@
       <c r="V15" s="5"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
@@ -1511,15 +1518,15 @@
         <f>C3</f>
         <v>1</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>27</v>
+      <c r="O16" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="X16" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y16" s="3" t="str">
         <f>"INSERT INTO "&amp;B$15&amp;" VALUES ("&amp;C16&amp;","&amp;"'"&amp;O16&amp;"'"&amp;");"</f>
-        <v>INSERT INTO building_photos VALUES (1,'https://en.wikipedia.org/wiki/File:Strasbourg_Cathedral_Exterior_-_Diliff.jpg');</v>
+        <v>INSERT INTO building_photos VALUES (1,'https://upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Strasbourg_Cathedral_Exterior_-_Diliff.jpg/1024px-Strasbourg_Cathedral_Exterior_-_Diliff.jpg');</v>
       </c>
     </row>
     <row r="17" spans="3:25" x14ac:dyDescent="0.3">
@@ -1528,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y17" s="3" t="str">
         <f>"INSERT INTO "&amp;B$15&amp;" VALUES ("&amp;C17&amp;","&amp;"'"&amp;O17&amp;"'"&amp;");"</f>
@@ -1544,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y18" s="3" t="str">
         <f t="shared" ref="Y18:Y34" si="2">"INSERT INTO "&amp;B$15&amp;" VALUES ("&amp;C18&amp;","&amp;"'"&amp;O18&amp;"'"&amp;");"</f>
@@ -1557,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y19" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1570,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y20" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1583,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Y21" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1596,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y22" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1609,7 +1616,7 @@
         <v>5</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y23" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1622,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1635,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Y25" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1648,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y26" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1661,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y27" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1674,7 +1681,7 @@
         <v>6</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y28" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1687,7 +1694,7 @@
         <v>7</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y29" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1700,7 +1707,7 @@
         <v>7</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y30" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1713,7 +1720,7 @@
         <v>8</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y31" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1726,7 +1733,7 @@
         <v>8</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y32" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1739,7 +1746,7 @@
         <v>9</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y33" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1752,7 +1759,7 @@
         <v>9</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y34" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1761,27 +1768,27 @@
     </row>
     <row r="39" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N39" s="14"/>
       <c r="O39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V39" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
@@ -1795,11 +1802,11 @@
       </c>
       <c r="O40" s="11" t="str">
         <f>O3</f>
-        <v>https://en.wikipedia.org/wiki/File:Strasbourg_Cathedral_Exterior_-_Diliff.jpg</v>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Strasbourg_Cathedral_Exterior_-_Diliff.jpg/1024px-Strasbourg_Cathedral_Exterior_-_Diliff.jpg</v>
       </c>
       <c r="Y40" s="3" t="str">
         <f>"INSERT INTO "&amp;B$39&amp;" VALUES ("&amp;C40&amp;","&amp;"'"&amp;K40&amp;"'"&amp;","&amp;"'"&amp;O40&amp;"'"&amp;");"</f>
-        <v>INSERT INTO building_city VALUES (1,'Cathédrale Notre-Dame','https://en.wikipedia.org/wiki/File:Strasbourg_Cathedral_Exterior_-_Diliff.jpg');</v>
+        <v>INSERT INTO building_city VALUES (1,'Cathédrale Notre-Dame','https://upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Strasbourg_Cathedral_Exterior_-_Diliff.jpg/1024px-Strasbourg_Cathedral_Exterior_-_Diliff.jpg');</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
@@ -1953,24 +1960,24 @@
     </row>
     <row r="51" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N51" s="14"/>
       <c r="P51" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q51" s="4" t="s">
         <v>8</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X51" s="9"/>
       <c r="Y51" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
@@ -1990,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y53" s="3" t="str">
         <f t="shared" ref="Y53:Y54" si="7">"INSERT INTO "&amp;B$51&amp;" VALUES ("&amp;P53&amp;","&amp;"'"&amp;Q53&amp;"'"&amp;");"</f>
@@ -2002,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Y54" s="3" t="str">
         <f t="shared" si="7"/>
@@ -2011,22 +2018,22 @@
     </row>
     <row r="57" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N57" s="14"/>
       <c r="P57" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V57" s="5"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
@@ -2161,10 +2168,10 @@
     </row>
     <row r="69" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>2</v>
@@ -2174,14 +2181,14 @@
       </c>
       <c r="N69" s="14"/>
       <c r="O69" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>12</v>
       </c>
       <c r="X69" s="9"/>
       <c r="Y69" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z69" s="1"/>
     </row>
@@ -2196,11 +2203,11 @@
       </c>
       <c r="O70" s="11" t="str">
         <f>O3</f>
-        <v>https://en.wikipedia.org/wiki/File:Strasbourg_Cathedral_Exterior_-_Diliff.jpg</v>
+        <v>https://upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Strasbourg_Cathedral_Exterior_-_Diliff.jpg/1024px-Strasbourg_Cathedral_Exterior_-_Diliff.jpg</v>
       </c>
       <c r="Y70" s="3" t="str">
         <f>"INSERT INTO "&amp;B$69&amp;" VALUES ("&amp;C70&amp;","&amp;"'"&amp;K70&amp;"'"&amp;","&amp;"'"&amp;O70&amp;"'"&amp;");"</f>
-        <v>INSERT INTO building_user VALUES (1,'Cathédrale Notre-Dame','https://en.wikipedia.org/wiki/File:Strasbourg_Cathedral_Exterior_-_Diliff.jpg');</v>
+        <v>INSERT INTO building_user VALUES (1,'Cathédrale Notre-Dame','https://upload.wikimedia.org/wikipedia/commons/thumb/7/7e/Strasbourg_Cathedral_Exterior_-_Diliff.jpg/1024px-Strasbourg_Cathedral_Exterior_-_Diliff.jpg');</v>
       </c>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
@@ -2223,30 +2230,30 @@
     </row>
     <row r="74" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N74" s="14"/>
       <c r="R74" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S74" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="S74" s="4" t="s">
+      <c r="T74" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T74" s="4" t="s">
+      <c r="U74" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="U74" s="4" t="s">
+      <c r="V74" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="V74" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="X74" s="9"/>
       <c r="Y74" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z74" s="1"/>
     </row>
@@ -2255,10 +2262,10 @@
         <v>1</v>
       </c>
       <c r="S75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T75" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="T75" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="U75" s="3">
         <v>1</v>
@@ -2270,19 +2277,19 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y79" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">

--- a/JeuDeTest.xlsx
+++ b/JeuDeTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cecil\eclipse-workspace-api\CecChrRap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE814A7D-C4AF-486B-98AA-DCD6A222CA33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02EBB5C-0B98-42DA-A33F-C6B583A91846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{BF3A48DE-6E75-4B60-AEEE-27C9ABED3A7D}"/>
   </bookViews>
@@ -887,7 +887,7 @@
   <dimension ref="A1:Z81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1028,8 +1028,8 @@
         <v>37</v>
       </c>
       <c r="Y3" s="3" t="str">
-        <f>"INSERT INTO "&amp;B$2&amp;" VALUES ("&amp;C3&amp;","&amp;"'"&amp;D3&amp;"'"&amp;","&amp;E3&amp;","&amp;"'"&amp;F3&amp;"'"&amp;","&amp;G3&amp;","&amp;"'"&amp;H3&amp;"'"&amp;","&amp;"'"&amp;I3&amp;"'"&amp;","&amp;"'"&amp;J3&amp;"'"&amp;","&amp;"'"&amp;K3&amp;"'"&amp;","&amp;"'"&amp;L3&amp;"'"&amp;","&amp;"'"&amp;M3&amp;"'"&amp;","&amp;"'"&amp;N3&amp;"'"&amp;");"</f>
-        <v>INSERT INTO building VALUES (1,'Erwin von Steinbach',4,'Strasbourg',1439,'48.581759','7.750369','La cathédrale Notre-Dame de Strasbourg est une cathédrale gothique catholique. Entre 1647 et 1874, pendant plus de deux siècle, elle fut le plus haut édifice du monde.','Cathédrale Notre-Dame','Place de la Cathédrale','','67000');</v>
+        <f>"INSERT INTO "&amp;B$2&amp;" VALUES ("&amp;C3&amp;","&amp;"'"&amp;D3&amp;"'"&amp;","&amp;E3&amp;","&amp;"'"&amp;F3&amp;"'"&amp;","&amp;G3&amp;","&amp;"'"&amp;J3&amp;"'"&amp;","&amp;"'"&amp;H3&amp;"'"&amp;","&amp;"'"&amp;I3&amp;"'"&amp;","&amp;"'"&amp;K3&amp;"'"&amp;","&amp;"'"&amp;L3&amp;"'"&amp;","&amp;"'"&amp;M3&amp;"'"&amp;","&amp;"'"&amp;N3&amp;"'"&amp;");"</f>
+        <v>INSERT INTO building VALUES (1,'Erwin von Steinbach',4,'Strasbourg',1439,'La cathédrale Notre-Dame de Strasbourg est une cathédrale gothique catholique. Entre 1647 et 1874, pendant plus de deux siècle, elle fut le plus haut édifice du monde.','48.581759','7.750369','Cathédrale Notre-Dame','Place de la Cathédrale','','67000');</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -1083,8 +1083,8 @@
         <v>114</v>
       </c>
       <c r="Y4" s="3" t="str">
-        <f t="shared" ref="Y4:Y10" si="1">"INSERT INTO "&amp;B$2&amp;" VALUES ("&amp;C4&amp;","&amp;"'"&amp;D4&amp;"'"&amp;","&amp;E4&amp;","&amp;"'"&amp;F4&amp;"'"&amp;","&amp;G4&amp;","&amp;"'"&amp;H4&amp;"'"&amp;","&amp;"'"&amp;I4&amp;"'"&amp;","&amp;"'"&amp;J4&amp;"'"&amp;","&amp;"'"&amp;K4&amp;"'"&amp;","&amp;"'"&amp;L4&amp;"'"&amp;","&amp;"'"&amp;M4&amp;"'"&amp;","&amp;"'"&amp;N4&amp;"'"&amp;");"</f>
-        <v>INSERT INTO building VALUES (2,'Sébastien Le Prestre de Vauban',4,'Strasbourg',1688,'48.579720','7.738076','Le barrage Vauban, aussi appelé « Grande Écluse de fortification », est un pont-écluse classé monument historique.','Barrage Vauban','Place du Quartier Blanc','','67000');</v>
+        <f t="shared" ref="Y4:Y11" si="1">"INSERT INTO "&amp;B$2&amp;" VALUES ("&amp;C4&amp;","&amp;"'"&amp;D4&amp;"'"&amp;","&amp;E4&amp;","&amp;"'"&amp;F4&amp;"'"&amp;","&amp;G4&amp;","&amp;"'"&amp;J4&amp;"'"&amp;","&amp;"'"&amp;H4&amp;"'"&amp;","&amp;"'"&amp;I4&amp;"'"&amp;","&amp;"'"&amp;K4&amp;"'"&amp;","&amp;"'"&amp;L4&amp;"'"&amp;","&amp;"'"&amp;M4&amp;"'"&amp;","&amp;"'"&amp;N4&amp;"'"&amp;");"</f>
+        <v>INSERT INTO building VALUES (2,'Sébastien Le Prestre de Vauban',4,'Strasbourg',1688,'Le barrage Vauban, aussi appelé « Grande Écluse de fortification », est un pont-écluse classé monument historique.','48.579720','7.738076','Barrage Vauban','Place du Quartier Blanc','','67000');</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="Y5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO building VALUES (3,'-',1,'Strasbourg',1572,'48.581460','7.741799','La Maison des Tanneurs de Strasbourg est une maison à colombages alsacienne traditionnelle, historique, et pittoresque, de style Renaissance strasbourgeoise du xvie siècle.','Maison des Tanneurs','rue du Bain-aux-Plantes','42','67000');</v>
+        <v>INSERT INTO building VALUES (3,'-',1,'Strasbourg',1572,'La Maison des Tanneurs de Strasbourg est une maison à colombages alsacienne traditionnelle, historique, et pittoresque, de style Renaissance strasbourgeoise du xvie siècle.','48.581460','7.741799','Maison des Tanneurs','rue du Bain-aux-Plantes','42','67000');</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="Y6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO building VALUES (4,'-',0,'Schiltigheim',1800,'48.609034','7.747392','Le Pixel Museum est un lieu autour duquel s’articulent les différents besoins du jeu vidéo : la préservation du patrimoine, l’évangélisation du média, le soutien à la création.','Pixel Museum','Rue de Lattre de Tassigny','14','67300');</v>
+        <v>INSERT INTO building VALUES (4,'-',0,'Schiltigheim',1800,'Le Pixel Museum est un lieu autour duquel s’articulent les différents besoins du jeu vidéo : la préservation du patrimoine, l’évangélisation du média, le soutien à la création.','48.609034','7.747392','Pixel Museum','Rue de Lattre de Tassigny','14','67300');</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="Y7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO building VALUES (5,'Gustave Eiffel',4,'Paris',1889,'48.860070','2.294567','Construite pour l’Exposition universelle de Paris de 1889, et initialement nommée « tour de 300 mètres », ce monument est devenu le symbole de la capitale française, et un site touristique de premier plan.','Tour Eiffel','Avenue Anatole France','5','75007');</v>
+        <v>INSERT INTO building VALUES (5,'Gustave Eiffel',4,'Paris',1889,'Construite pour l’Exposition universelle de Paris de 1889, et initialement nommée « tour de 300 mètres », ce monument est devenu le symbole de la capitale française, et un site touristique de premier plan.','48.860070','2.294567','Tour Eiffel','Avenue Anatole France','5','75007');</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="Y8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO building VALUES (6,'Charles Claude Flahaut de La Billarderie',0,'Paris',1793,'48.862345','2.337756','Le musée se signale par la pyramide de verre de son hall d accueil, érigée en 1989 dans la cour Napoléon et qui en est devenue emblématique, tandis que la statue équestre de Louis XIV constitue le point de départ de l axe historique parisien.','Musée du Louvre','Rue de Rivoli','','75001');</v>
+        <v>INSERT INTO building VALUES (6,'Charles Claude Flahaut de La Billarderie',0,'Paris',1793,'Le musée se signale par la pyramide de verre de son hall d accueil, érigée en 1989 dans la cour Napoléon et qui en est devenue emblématique, tandis que la statue équestre de Louis XIV constitue le point de départ de l axe historique parisien.','48.862345','2.337756','Musée du Louvre','Rue de Rivoli','','75001');</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="Y9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO building VALUES (7,'Jean-François Chalgrin',4,'Paris',1836,'48.876770','2.295574','L’arc de triomphe de l’Étoile, souvent appelé simplement l’Arc de triomphe, dont la construction, décidée par l empereur Napoléon Ier est situé à Paris, dans les 8e, 16e, et 17e arrondissements.','Arc de Triomphe','Place Charles de Gaulle','','75008');</v>
+        <v>INSERT INTO building VALUES (7,'Jean-François Chalgrin',4,'Paris',1836,'L’arc de triomphe de l’Étoile, souvent appelé simplement l’Arc de triomphe, dont la construction, décidée par l empereur Napoléon Ier est situé à Paris, dans les 8e, 16e, et 17e arrondissements.','48.876770','2.295574','Arc de Triomphe','Place Charles de Gaulle','','75008');</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="Y10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO building VALUES (8,'François-Frédéric Lemot',4,'Lyon',1800,'45.758310','4.832093','La place Bellecour est la plus grande place de la ville de Lyon (62 000 m2) et la cinquième plus grande place de France.','Place Bellecour','Place Bellecour','','69002');</v>
+        <v>INSERT INTO building VALUES (8,'François-Frédéric Lemot',4,'Lyon',1800,'La place Bellecour est la plus grande place de la ville de Lyon (62 000 m2) et la cinquième plus grande place de France.','45.758310','4.832093','Place Bellecour','Place Bellecour','','69002');</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -1480,8 +1480,8 @@
         <v>137</v>
       </c>
       <c r="Y11" s="3" t="str">
-        <f>"INSERT INTO "&amp;B$2&amp;" VALUES ("&amp;C11&amp;","&amp;"'"&amp;D11&amp;"'"&amp;","&amp;E11&amp;","&amp;"'"&amp;F11&amp;"'"&amp;","&amp;G11&amp;","&amp;"'"&amp;H11&amp;"'"&amp;","&amp;"'"&amp;I11&amp;"'"&amp;","&amp;"'"&amp;J11&amp;"'"&amp;","&amp;"'"&amp;K11&amp;"'"&amp;","&amp;"'"&amp;L11&amp;"'"&amp;","&amp;"'"&amp;M11&amp;"'"&amp;","&amp;"'"&amp;N11&amp;"'"&amp;");"</f>
-        <v>INSERT INTO building VALUES (9,'Pierre Bossan',4,'Lyon',1884,'45.762472','4.822572','La basilique Notre-Dame de Fourvière surplombe la ville de Lyon depuis le sommet de la colline de Fourvière depuis la fin du xixe siècle.','La Basilique Notre Dame de Fourvière','Place de Fourvière','8','69005');</v>
+        <f t="shared" si="1"/>
+        <v>INSERT INTO building VALUES (9,'Pierre Bossan',4,'Lyon',1884,'La basilique Notre-Dame de Fourvière surplombe la ville de Lyon depuis le sommet de la colline de Fourvière depuis la fin du xixe siècle.','45.762472','4.822572','La Basilique Notre Dame de Fourvière','Place de Fourvière','8','69005');</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
